--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t xml:space="preserve">Table 1 (celle qui a le moins de colonnes)</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Groupe TP</t>
   </si>
   <si>
+    <t xml:space="preserve">SQL</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
@@ -88,13 +91,25 @@
     <t xml:space="preserve">R : read</t>
   </si>
   <si>
+    <t xml:space="preserve">drop create insert</t>
+  </si>
+  <si>
     <t xml:space="preserve">C : create</t>
   </si>
   <si>
+    <t xml:space="preserve">alter table drop add constraint</t>
+  </si>
+  <si>
     <t xml:space="preserve">D : delete</t>
   </si>
   <si>
+    <t xml:space="preserve">Left + agreg.</t>
+  </si>
+  <si>
     <t xml:space="preserve">U : update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request prepared</t>
   </si>
   <si>
     <t xml:space="preserve">Jointure G : affichage du nombre d’éléments joints de la table 2 à l’aide d’une jointure externe (gauche ou droite)</t>
@@ -131,11 +146,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,6 +173,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,10 +182,18 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,6 +271,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,7 +291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,32 +376,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="24.31"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -385,208 +414,240 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="5"/>
+      <c r="U3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="U6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
-        <v>21</v>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
-        <v>22</v>
+      <c r="A10" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
-        <v>23</v>
+      <c r="A11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
-        <v>24</v>
+      <c r="A12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
-        <v>25</v>
+      <c r="A13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
-        <v>26</v>
+      <c r="E14" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="s">
-        <v>27</v>
+      <c r="E15" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="s">
-        <v>28</v>
+      <c r="E16" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="s">
-        <v>29</v>
+      <c r="E17" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="8" t="s">
-        <v>30</v>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="8" t="s">
-        <v>31</v>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>32</v>
+      <c r="E20" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="s">
-        <v>33</v>
+      <c r="E21" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -196,7 +196,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -258,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,6 +294,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,7 +359,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -379,10 +389,10 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="6.11"/>
@@ -477,7 +487,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -486,8 +496,8 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,65 +506,65 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -631,12 +641,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>36</v>
       </c>
     </row>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">URL pythonanywhere</t>
   </si>
   <si>
-    <t xml:space="preserve">qualité de l’interface et du jeu de test</t>
+    <t xml:space="preserve">qualité de l’interface</t>
   </si>
   <si>
     <t xml:space="preserve">compéter les cellules ci-dessus avec :</t>
@@ -115,7 +115,8 @@
     <t xml:space="preserve">Jointure G : affichage du nombre d’éléments joints de la table 2 à l’aide d’une jointure externe (gauche ou droite)</t>
   </si>
   <si>
-    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer</t>
+    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer 
+(0,5 si fonctionel non identique à la démo ; 0 si suppression en cascade (tous les enregistrements en même temps))</t>
   </si>
   <si>
     <t xml:space="preserve">jointure : affichage d’un champ autre que l’identifiant de la table 1</t>
@@ -127,16 +128,16 @@
     <t xml:space="preserve">LD update : liste déroulante pour modifier, sélection de  la bonne valeur lors d’une modification d’un enregistrement</t>
   </si>
   <si>
-    <t xml:space="preserve">état : utilisation de 2 requêtes minimum avec des fonctions d’agrégation et  des jointures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre</t>
+    <t xml:space="preserve">état : utilisation de 2 requêtes minimum avec des fonctions d’agrégation et  des jointures (0,3 : 1 requête : 0,3 : 1 fonction ; 0,5 si pas 2 req et plusieurs fonctions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton réinitialiser )</t>
   </si>
   <si>
     <t xml:space="preserve">URL pythonanywhere : si l’application est en ligne, indiquer l’URL</t>
   </si>
   <si>
-    <t xml:space="preserve">qualité de l’interface et du jeu de test : indiquer si vous avez ajouter des images des enregistrements ….</t>
+    <t xml:space="preserve">qualité de l’interface  : évaluation de la qualité de l’interface </t>
   </si>
 </sst>
 </file>
@@ -264,48 +265,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,288 +391,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="24.31"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+    <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -131,7 +131,7 @@
     <t xml:space="preserve">état : utilisation de 2 requêtes minimum avec des fonctions d’agrégation et  des jointures (0,3 : 1 requête : 0,3 : 1 fonction ; 0,5 si pas 2 req et plusieurs fonctions)</t>
   </si>
   <si>
-    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton réinitialiser )</t>
+    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton « réinitialiser" )</t>
   </si>
   <si>
     <t xml:space="preserve">URL pythonanywhere : si l’application est en ligne, indiquer l’URL</t>
@@ -398,7 +398,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="11" t="s">
         <v>31</v>
       </c>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Jointure G : affichage du nombre d’éléments joints de la table 2 à l’aide d’une jointure externe (gauche ou droite)</t>
   </si>
   <si>
-    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer 
+    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer
 (0,5 si fonctionel non identique à la démo ; 0 si suppression en cascade (tous les enregistrements en même temps))</t>
   </si>
   <si>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">état : utilisation de 2 requêtes minimum avec des fonctions d’agrégation et  des jointures (0,3 : 1 requête : 0,3 : 1 fonction ; 0,5 si pas 2 req et plusieurs fonctions)</t>
   </si>
   <si>
-    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton « réinitialiser" )</t>
+    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton « réinitialiser »  )</t>
   </si>
   <si>
     <t xml:space="preserve">URL pythonanywhere : si l’application est en ligne, indiquer l’URL</t>
@@ -398,7 +398,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -265,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,10 +312,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -398,7 +394,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,12 +646,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
     </row>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -265,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,6 +275,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,7 +315,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -394,7 +406,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,98 +424,98 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -511,159 +523,375 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="1" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="1" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="11" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="11" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="1" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="1" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -265,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,15 +315,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -406,7 +410,7 @@
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:S21"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,7 +611,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -634,7 +638,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -661,7 +665,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -688,7 +692,7 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -715,13 +719,13 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="12"/>
@@ -737,7 +741,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="13"/>
@@ -759,7 +763,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
@@ -781,7 +785,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
@@ -803,13 +807,13 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="12"/>
@@ -825,13 +829,13 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="12"/>
@@ -847,7 +851,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="13"/>
@@ -869,7 +873,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="13"/>
@@ -891,7 +895,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="S21" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -115,8 +115,7 @@
     <t xml:space="preserve">Jointure G : affichage du nombre d’éléments joints de la table 2 à l’aide d’une jointure externe (gauche ou droite)</t>
   </si>
   <si>
-    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer
-(0,5 si fonctionel non identique à la démo ; 0 si suppression en cascade (tous les enregistrements en même temps))</t>
+    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer (0,5 si fonctionel non identique à la démo ; 0 si suppression en cascade (tous les enregistrements en même temps))</t>
   </si>
   <si>
     <t xml:space="preserve">jointure : affichage d’un champ autre que l’identifiant de la table 1</t>
@@ -265,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,20 +313,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -407,10 +398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:V21"/>
+  <dimension ref="A2:V27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:R21"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,313 +580,515 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+    </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bdd1/source/eval_etudiant_mini_projet.xlsx
+++ b/bdd1/source/eval_etudiant_mini_projet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t xml:space="preserve">Table 1 (celle qui a le moins de colonnes)</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">1 ou 0</t>
   </si>
   <si>
+    <t xml:space="preserve">rien</t>
+  </si>
+  <si>
     <t xml:space="preserve">R : read</t>
   </si>
   <si>
@@ -112,31 +115,216 @@
     <t xml:space="preserve">request prepared</t>
   </si>
   <si>
-    <t xml:space="preserve">Jointure G : affichage du nombre d’éléments joints de la table 2 à l’aide d’une jointure externe (gauche ou droite)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete Cascade : interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer (0,5 si fonctionel non identique à la démo ; 0 si suppression en cascade (tous les enregistrements en même temps))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jointure : affichage d’un champ autre que l’identifiant de la table 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD create : liste déroulante pour ajouter (pas de valeur par défaut)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD update : liste déroulante pour modifier, sélection de  la bonne valeur lors d’une modification d’un enregistrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">état : utilisation de 2 requêtes minimum avec des fonctions d’agrégation et  des jointures (0,3 : 1 requête : 0,3 : 1 fonction ; 0,5 si pas 2 req et plusieurs fonctions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filtre : utilisation des sessions pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton « réinitialiser »  )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL pythonanywhere : si l’application est en ligne, indiquer l’URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualité de l’interface  : évaluation de la qualité de l’interface </t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Jointure G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : affichage du nombre d’éléments joints de la table 2 à l’aide d’une jointure externe (gauche ou droite)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">delete Cascade </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: interface qui permet de supprimer en cascade les éléments joints de la table 2 + affichage du nombre d’objets à supprimer </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(0,5 si fonctionel non identique à la démo ; 0 si suppression en cascade (tous les enregistrements en même temps))</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jointure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: affichage d’un champ autre que l’identifiant de la table 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LD create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : liste déroulante pour ajouter (pas de valeur par défaut)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LD update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : liste déroulante pour modifier, sélection de  la bonne valeur lors d’une modification d’un enregistrement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">état</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : utilisation de 2 requêtes minimum avec des fonctions d’agrégation et  des jointures (0,3 : 1 requête : 0,3 : 1 fonction ; 0,5 si pas 2 req et plusieurs fonctions)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">filtre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : utilisation des </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sessions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pour conserver les valeurs sélectionnées dans le filtre (0,3 interface ; -0,2 si pas de bouton « réinitialiser »  )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">URL pythonanywhere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : si l’application est en ligne, indiquer l’URL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qualité de l’interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  : évaluation de la qualité de l’interface </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -146,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -191,6 +379,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -264,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,6 +510,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,10 +598,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:V27"/>
+  <dimension ref="A2:V28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,8 +611,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="5.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.21"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,24 +830,24 @@
         <v>5</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
@@ -654,28 +855,28 @@
       <c r="A10" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
@@ -683,28 +884,28 @@
       <c r="A11" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
+      <c r="B11" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
@@ -712,28 +913,28 @@
       <c r="A12" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>27</v>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
@@ -741,242 +942,244 @@
       <c r="A13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
+      <c r="B13" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
@@ -1090,6 +1293,28 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
